--- a/DESIGN/rules/Example 3 - Auto Policy Calculation/AutoPolicyCalculation.xlsx
+++ b/DESIGN/rules/Example 3 - Auto Policy Calculation/AutoPolicyCalculation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenL\openl-demo-app-5.23.3\apache-tomcat-9.0.30\openl-demo\user-workspace\DEFAULT\Example 3 - Auto Policy Calculation\"/>
     </mc:Choice>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="279">
   <si>
     <t>Driver</t>
   </si>
@@ -2459,6 +2459,9 @@
       </rPr>
       <t xml:space="preserve"> (ClientTier clientTier)</t>
     </r>
+  </si>
+  <si>
+    <t>Determine Driver eligibility by  Driver status and whether Training is passed or notw</t>
   </si>
 </sst>
 </file>
@@ -2627,19 +2630,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" rgb="FFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.14999847407452621" rgb="FFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.34998626667073579" rgb="FFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2798,15 +2801,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0" xfId="2">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3156,12 +3157,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="3">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3582,15 +3581,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="50" style="1" customWidth="1"/>
-    <col min="5" max="5" width="76.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="1"/>
-    <col min="8" max="8" width="42.44140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="6.33203125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="1" width="15.88671875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="1" width="18.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="1" width="76.88671875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="1" width="18.33203125" collapsed="false"/>
+    <col min="7" max="7" style="1" width="9.109375" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="1" width="42.44140625" collapsed="false"/>
+    <col min="9" max="16384" style="1" width="9.109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
@@ -3939,7 +3938,7 @@
         <v>158</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>202</v>
+        <v>278</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>180</v>
@@ -4360,12 +4359,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" customWidth="1"/>
-    <col min="6" max="6" width="46.88671875" customWidth="1"/>
-    <col min="7" max="7" width="37" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="26.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="31.6640625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="10.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="46.88671875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="37.0" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="20.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
@@ -4449,9 +4448,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="14.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="23.88671875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="11.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
@@ -4983,10 +4982,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="3"/>
-    <col min="2" max="2" width="14.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" style="3" width="9.109375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="3" width="14.5546875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="3" width="34.0" collapsed="false"/>
+    <col min="4" max="16384" style="3" width="9.109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
@@ -5715,10 +5714,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="14.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="17.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -5783,13 +5782,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="48.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="13" width="16.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="22.6640625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="23.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="24.33203125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="48.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="16.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
@@ -6219,8 +6218,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="27.5546875" customWidth="1"/>
-    <col min="4" max="4" width="65.6640625" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="27.5546875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="65.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
@@ -6304,13 +6303,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.109375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="13" width="11.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="14.88671875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="31.5546875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="21.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="25.6640625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="11.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
@@ -6660,9 +6659,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="33.5546875" customWidth="1"/>
-    <col min="4" max="4" width="29.109375" customWidth="1"/>
-    <col min="5" max="5" width="38.6640625" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="29.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="38.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -6890,10 +6889,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="34.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="34.44140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="44.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="11.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="34.5546875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
@@ -6989,11 +6988,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="8" max="8" width="43.109375" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="43.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="32.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="23.44140625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="10.0" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="43.109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
@@ -7102,13 +7101,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5546875" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="7.0" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="40.5546875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="28.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="14.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="22.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
@@ -7696,13 +7695,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" customWidth="1"/>
-    <col min="6" max="6" width="42.44140625" customWidth="1"/>
-    <col min="17" max="17" width="24.88671875" customWidth="1"/>
-    <col min="18" max="18" width="24" customWidth="1"/>
-    <col min="19" max="19" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="21.88671875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="42.44140625" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="24.88671875" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" width="24.0" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" width="25.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">

--- a/DESIGN/rules/Example 3 - Auto Policy Calculation/AutoPolicyCalculation.xlsx
+++ b/DESIGN/rules/Example 3 - Auto Policy Calculation/AutoPolicyCalculation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenL\openl-demo-app-5.23.3\apache-tomcat-9.0.30\openl-demo\user-workspace\DEFAULT\Example 3 - Auto Policy Calculation\"/>
     </mc:Choice>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="279">
   <si>
     <t>Driver</t>
   </si>
@@ -2459,6 +2459,9 @@
       </rPr>
       <t xml:space="preserve"> (ClientTier clientTier)</t>
     </r>
+  </si>
+  <si>
+    <t>Determine Driver risk by numbers of DUI, Accidents and Moving Violationsq</t>
   </si>
 </sst>
 </file>
@@ -2627,19 +2630,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" rgb="FFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.14999847407452621" rgb="FFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.34998626667073579" rgb="FFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2798,15 +2801,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0" xfId="2">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3156,12 +3157,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="3">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3582,15 +3581,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="50" style="1" customWidth="1"/>
-    <col min="5" max="5" width="76.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="1"/>
-    <col min="8" max="8" width="42.44140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="6.33203125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="1" width="15.88671875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="1" width="18.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="1" width="76.88671875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="1" width="18.33203125" collapsed="false"/>
+    <col min="7" max="7" style="1" width="9.109375" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="1" width="42.44140625" collapsed="false"/>
+    <col min="9" max="16384" style="1" width="9.109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
@@ -3953,7 +3952,7 @@
         <v>141</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>203</v>
+        <v>278</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>181</v>
@@ -4360,12 +4359,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" customWidth="1"/>
-    <col min="6" max="6" width="46.88671875" customWidth="1"/>
-    <col min="7" max="7" width="37" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="26.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="31.6640625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="10.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="46.88671875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="37.0" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="20.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
@@ -4449,9 +4448,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="14.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="23.88671875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="11.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
@@ -4983,10 +4982,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="3"/>
-    <col min="2" max="2" width="14.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" style="3" width="9.109375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="3" width="14.5546875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="3" width="34.0" collapsed="false"/>
+    <col min="4" max="16384" style="3" width="9.109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
@@ -5715,10 +5714,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="14.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="17.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -5783,13 +5782,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="48.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="13" width="16.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="22.6640625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="23.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="24.33203125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="48.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="16.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
@@ -6219,8 +6218,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="27.5546875" customWidth="1"/>
-    <col min="4" max="4" width="65.6640625" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="27.5546875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="65.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
@@ -6304,13 +6303,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.109375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="13" width="11.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="14.88671875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="31.5546875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="21.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="25.6640625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="11.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
@@ -6660,9 +6659,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="33.5546875" customWidth="1"/>
-    <col min="4" max="4" width="29.109375" customWidth="1"/>
-    <col min="5" max="5" width="38.6640625" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="29.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="38.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -6890,10 +6889,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="34.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="34.44140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="44.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="11.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="34.5546875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
@@ -6989,11 +6988,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="8" max="8" width="43.109375" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="43.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="32.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="23.44140625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="10.0" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="43.109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
@@ -7102,13 +7101,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5546875" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="7.0" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="40.5546875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="28.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="14.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="22.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
@@ -7696,13 +7695,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" customWidth="1"/>
-    <col min="6" max="6" width="42.44140625" customWidth="1"/>
-    <col min="17" max="17" width="24.88671875" customWidth="1"/>
-    <col min="18" max="18" width="24" customWidth="1"/>
-    <col min="19" max="19" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="21.88671875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="42.44140625" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="24.88671875" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" width="24.0" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" width="25.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">

--- a/DESIGN/rules/Example 3 - Auto Policy Calculation/AutoPolicyCalculation.xlsx
+++ b/DESIGN/rules/Example 3 - Auto Policy Calculation/AutoPolicyCalculation.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="280">
   <si>
     <t>Driver</t>
   </si>
@@ -2462,6 +2462,9 @@
   </si>
   <si>
     <t>Determine Driver risk by numbers of DUI, Accidents and Moving Violationsq</t>
+  </si>
+  <si>
+    <t>Per Accident Premium2</t>
   </si>
 </sst>
 </file>
@@ -3581,15 +3584,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="6.33203125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="1" width="15.88671875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="1" width="18.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.0" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="1" width="76.88671875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="1" width="18.33203125" collapsed="false"/>
-    <col min="7" max="7" style="1" width="9.109375" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="1" width="42.44140625" collapsed="false"/>
-    <col min="9" max="16384" style="1" width="9.109375" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="1" width="6.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="15.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="18.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="76.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="18.33203125" collapsed="true"/>
+    <col min="7" max="7" style="1" width="9.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="42.44140625" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
@@ -4359,12 +4362,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="26.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="31.6640625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="10.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="46.88671875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="37.0" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="20.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="31.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="46.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
@@ -4448,9 +4451,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="14.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="23.88671875" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="11.44140625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
@@ -4982,10 +4985,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="9.109375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="3" width="14.5546875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="3" width="34.0" collapsed="false"/>
-    <col min="4" max="16384" style="3" width="9.109375" collapsed="false"/>
+    <col min="1" max="1" style="3" width="9.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="14.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="34.0" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
@@ -5714,10 +5717,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="14.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="17.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="18.33203125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -5782,13 +5785,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="13" width="16.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="22.6640625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="23.109375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="24.33203125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="48.109375" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="16.33203125" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="13" width="16.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="48.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="13.8" x14ac:dyDescent="0.3">
@@ -6218,8 +6221,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="27.5546875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="65.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="27.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="65.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
@@ -6303,13 +6306,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.109375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="13" width="11.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="14.88671875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="31.5546875" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="21.6640625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="25.6640625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="11.6640625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="13" width="11.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="31.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
@@ -6659,9 +6662,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="29.109375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="38.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="29.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="38.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -6889,10 +6892,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="34.44140625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="44.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="11.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="34.5546875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="34.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="44.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
@@ -6988,11 +6991,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="43.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="32.44140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="23.44140625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="10.0" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="43.109375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="43.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
@@ -7101,13 +7104,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="7.0" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="21.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="40.5546875" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="28.6640625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="14.109375" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="22.88671875" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="40.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
@@ -7695,13 +7698,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="16.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="18.0" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="21.88671875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="42.44140625" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="24.88671875" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" width="24.0" collapsed="false"/>
-    <col min="19" max="19" customWidth="true" width="25.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.44140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="25.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
@@ -7968,7 +7971,7 @@
       <c r="D28" s="37"/>
       <c r="E28" s="37"/>
       <c r="F28" s="83" t="s">
-        <v>66</v>
+        <v>279</v>
       </c>
       <c r="G28" s="6"/>
     </row>

--- a/DESIGN/rules/Example 3 - Auto Policy Calculation/AutoPolicyCalculation.xlsx
+++ b/DESIGN/rules/Example 3 - Auto Policy Calculation/AutoPolicyCalculation.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="281">
   <si>
     <t>Driver</t>
   </si>
@@ -2465,6 +2465,9 @@
   </si>
   <si>
     <t>Per Accident Premium2</t>
+  </si>
+  <si>
+    <t>Unique Driver Id1</t>
   </si>
 </sst>
 </file>
@@ -3913,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>253</v>
